--- a/WIP/Deliverables/Report 1/Veazy_Q&A_EN.xlsx
+++ b/WIP/Deliverables/Report 1/Veazy_Q&A_EN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc tap\Capstone Project\DoAnJSSu16\201605JS01\WIP\Deliverables\Report 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Linh\Desktop\201605JS01\WIP\Plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -250,41 +250,41 @@
     <t>Validation</t>
   </si>
   <si>
-    <t>How many Vietnamese's levels?</t>
-  </si>
-  <si>
-    <t>How to divide the lesson?</t>
-  </si>
-  <si>
-    <t>Different between the structure of each lesson's level?</t>
-  </si>
-  <si>
-    <t>What's difficult for foreigners to learn Vietnamese?</t>
-  </si>
-  <si>
-    <t>How many level in Vietnamese course of FPT University?</t>
-  </si>
-  <si>
-    <t>Could Content Managers have add/edit function as Editor?</t>
-  </si>
-  <si>
-    <t>What are popular documents in studying vietnamese?</t>
-  </si>
-  <si>
-    <t>Full name of system :  Vietnamese Study System for Japanes.
-Can use "VEAZY" as project code?</t>
-  </si>
-  <si>
-    <t>How is the ban/unban member mechanism?</t>
-  </si>
-  <si>
-    <t>Does system need back up data of lesson/question when editing?</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
     <t>QuanNH</t>
+  </si>
+  <si>
+    <t>Which method is used to divide each level into the lesson?</t>
+  </si>
+  <si>
+    <t>Between levels, is there any difference in structure of lesson?</t>
+  </si>
+  <si>
+    <t>Mentions the difficulty for foreigners in learning Vietnamese.</t>
+  </si>
+  <si>
+    <t>Vietnamese curriculum is divided into how many levels? List levels.</t>
+  </si>
+  <si>
+    <t>Vietnamese curriculum in FPT University is divided into how many levels? List levels.</t>
+  </si>
+  <si>
+    <t>Name the popular books and materials using in Vietnamese studies.</t>
+  </si>
+  <si>
+    <t>The system full name :  Vietnamese Study System for Japanese.
+Can we use "VEAZY" as project code?</t>
+  </si>
+  <si>
+    <t>Does system need to backup data of lesson/question when editing?</t>
+  </si>
+  <si>
+    <t>Should Content Managers have add/edit function as Editor?</t>
+  </si>
+  <si>
+    <t>What is the mechanism of ban/unban system user function?</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
     <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -306,67 +306,85 @@
       <b/>
       <sz val="14"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF003366"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF333399"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -514,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -642,6 +660,9 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9804,7 +9825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B21" workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
@@ -9827,20 +9848,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="59"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -10243,15 +10264,15 @@
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
@@ -10303,18 +10324,18 @@
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -10333,18 +10354,18 @@
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -10363,18 +10384,18 @@
     <row r="19" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="62"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -10393,18 +10414,18 @@
     <row r="20" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -10423,18 +10444,18 @@
     <row r="21" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="62"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -10453,18 +10474,18 @@
     <row r="22" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -10483,18 +10504,18 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="62"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -10513,18 +10534,18 @@
     <row r="24" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -10543,18 +10564,18 @@
     <row r="25" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -10573,18 +10594,18 @@
     <row r="26" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -10603,18 +10624,18 @@
     <row r="27" spans="1:26" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="62"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -10633,18 +10654,18 @@
     <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -10663,18 +10684,18 @@
     <row r="29" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="62"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -10693,18 +10714,18 @@
     <row r="30" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="62"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -10723,18 +10744,18 @@
     <row r="31" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="62"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -10754,17 +10775,17 @@
       <c r="A32" s="6"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="62"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -10784,17 +10805,17 @@
       <c r="A33" s="6"/>
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="62"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -10814,17 +10835,17 @@
       <c r="A34" s="6"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="62"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -10844,17 +10865,17 @@
       <c r="A35" s="6"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="62"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -10874,17 +10895,17 @@
       <c r="A36" s="6"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="62"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -10904,17 +10925,17 @@
       <c r="A37" s="6"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="62"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -38055,7 +38076,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -38088,8 +38109,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="55">
-        <f ca="1">NOW()</f>
-        <v>42582.189199305554</v>
+        <v>42510</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -38415,7 +38435,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="46" t="s">
@@ -38433,7 +38453,7 @@
       </c>
       <c r="J14" s="49"/>
       <c r="K14" s="46" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L14" s="45"/>
       <c r="M14" s="46" t="s">
@@ -38464,7 +38484,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="46" t="s">
@@ -38482,7 +38502,7 @@
       </c>
       <c r="J15" s="49"/>
       <c r="K15" s="46" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L15" s="45"/>
       <c r="M15" s="46" t="s">
@@ -38513,7 +38533,7 @@
         <v>62</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="46" t="s">
@@ -38531,7 +38551,7 @@
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="46" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L16" s="45"/>
       <c r="M16" s="46" t="s">
@@ -38562,7 +38582,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="46" t="s">
@@ -38580,7 +38600,7 @@
       </c>
       <c r="J17" s="49"/>
       <c r="K17" s="46" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L17" s="45"/>
       <c r="M17" s="46" t="s">
@@ -38611,7 +38631,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="46" t="s">
@@ -38629,7 +38649,7 @@
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="46" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L18" s="45"/>
       <c r="M18" s="46" t="s">
@@ -38660,7 +38680,7 @@
         <v>62</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="48"/>
@@ -38670,7 +38690,7 @@
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="46" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L19" s="45"/>
       <c r="M19" s="48"/>
@@ -38697,7 +38717,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="48" t="s">
@@ -38715,7 +38735,7 @@
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="48" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L20" s="45"/>
       <c r="M20" s="48" t="s">
@@ -38764,7 +38784,7 @@
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="48" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L21" s="45"/>
       <c r="M21" s="48" t="s">
@@ -38795,7 +38815,7 @@
         <v>62</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="48" t="s">
@@ -38813,7 +38833,7 @@
       </c>
       <c r="J22" s="49"/>
       <c r="K22" s="48" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="48" t="s">
@@ -38843,8 +38863,8 @@
       <c r="B23" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="44" t="s">
-        <v>77</v>
+      <c r="C23" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="46" t="s">
@@ -38862,7 +38882,7 @@
       </c>
       <c r="J23" s="49"/>
       <c r="K23" s="46" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L23" s="45"/>
       <c r="M23" s="46" t="s">
